--- a/biology/Zoologie/Combattant_de_Liège/Combattant_de_Liège.xlsx
+++ b/biology/Zoologie/Combattant_de_Liège/Combattant_de_Liège.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Combattant_de_Li%C3%A8ge</t>
+          <t>Combattant_de_Liège</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le combattant de Liège est une race de poule domestique. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Combattant_de_Li%C3%A8ge</t>
+          <t>Combattant_de_Liège</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette race est originaire de la région de Liège, en Belgique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette race est originaire de la région de Liège, en Belgique.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Combattant_de_Li%C3%A8ge</t>
+          <t>Combattant_de_Liège</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>C'est une volaille de type combattant, haute sur pattes et de grande taille, au port relevé et au dos incliné. Les pattes sont un peu courbées au talon, les tarses sont forts et puissants, les ailes un peu descendantes et la queue portée à 45°. Elle donne une impression de force et d'audace, avec un caractère querelleur et batailleur. Sa croissance est assez lente et elle atteint l'âge adulte à 18 mois.
-Standard officiel
-Crête : triple a pois, rouge foncé à pourpre
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une volaille de type combattant, haute sur pattes et de grande taille, au port relevé et au dos incliné. Les pattes sont un peu courbées au talon, les tarses sont forts et puissants, les ailes un peu descendantes et la queue portée à 45°. Elle donne une impression de force et d'audace, avec un caractère querelleur et batailleur. Sa croissance est assez lente et elle atteint l'âge adulte à 18 mois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Combattant_de_Liège</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Combattant_de_Li%C3%A8ge</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Standard officiel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Crête : triple a pois, rouge foncé à pourpre
 Oreillons : rouge foncé à pourpre
 Couleur des yeux : brun foncé
 Couleur des Tarses : bleu à bleu foncé
